--- a/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Documents\Unity-Study\Test\Assets\Scripts\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Desktop\Study\CloudFactory\Cloud-Factory\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FA0E2-60C2-4B4D-A608-9FD5F1318B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F2469-1BF9-48F8-AA01-384E092EB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="1020" windowWidth="24060" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27120" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>GuestID</t>
   </si>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>손님20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGuest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitCount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1092,7 @@
     <col min="5" max="5" width="102.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1108,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1117,8 +1131,14 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1134,8 +1154,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1151,8 +1177,14 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1168,8 +1200,14 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1185,8 +1223,14 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1202,8 +1246,14 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1219,8 +1269,14 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1236,8 +1292,14 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1253,8 +1315,14 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1270,8 +1338,14 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1287,8 +1361,14 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1304,8 +1384,14 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1321,8 +1407,14 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1338,8 +1430,14 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1355,8 +1453,14 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1372,8 +1476,14 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1389,8 +1499,14 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1406,8 +1522,14 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1423,8 +1545,14 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1440,8 +1568,14 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1457,8 +1591,14 @@
       <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1474,8 +1614,14 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1491,8 +1637,14 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1508,8 +1660,14 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1525,8 +1683,14 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1542,8 +1706,14 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1559,8 +1729,14 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1576,8 +1752,14 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1593,8 +1775,14 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1610,8 +1798,14 @@
       <c r="E31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1627,8 +1821,14 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1644,8 +1844,14 @@
       <c r="E33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1661,8 +1867,14 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1678,8 +1890,14 @@
       <c r="E35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1695,8 +1913,14 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1712,8 +1936,14 @@
       <c r="E37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>17</v>
       </c>
@@ -1729,8 +1959,14 @@
       <c r="E38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>18</v>
       </c>
@@ -1746,8 +1982,14 @@
       <c r="E39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19</v>
       </c>
@@ -1763,8 +2005,14 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -1780,8 +2028,14 @@
       <c r="E41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1797,8 +2051,14 @@
       <c r="E42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1814,8 +2074,14 @@
       <c r="E43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1831,8 +2097,14 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1848,8 +2120,14 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1865,8 +2143,14 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1882,8 +2166,14 @@
       <c r="E47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1899,8 +2189,14 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1916,8 +2212,14 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>9</v>
       </c>
@@ -1933,8 +2235,14 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1950,8 +2258,14 @@
       <c r="E51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1967,8 +2281,14 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1984,8 +2304,14 @@
       <c r="E53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2001,8 +2327,14 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2018,8 +2350,14 @@
       <c r="E55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2035,8 +2373,14 @@
       <c r="E56" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -2052,8 +2396,14 @@
       <c r="E57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>17</v>
       </c>
@@ -2069,8 +2419,14 @@
       <c r="E58" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>18</v>
       </c>
@@ -2086,8 +2442,14 @@
       <c r="E59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>19</v>
       </c>
@@ -2103,8 +2465,14 @@
       <c r="E60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20</v>
       </c>
@@ -2119,6 +2487,12 @@
       </c>
       <c r="E61" t="s">
         <v>24</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Desktop\Study\CloudFactory\Cloud-Factory\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Desktop\newnewForkFork\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F2469-1BF9-48F8-AA01-384E092EB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B18F0B-54D4-4866-85E2-59E44463141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27120" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
   <si>
     <t>GuestID</t>
   </si>
@@ -40,91 +40,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>손님1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>isGuest</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>VisitCount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내놔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 비상구 고고</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1109,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1129,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1152,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1175,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1221,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1244,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1267,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1290,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1313,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1336,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1359,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1382,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1405,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1428,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1451,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1474,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1497,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1520,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1543,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1566,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1589,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1612,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1635,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1658,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1704,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1727,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1750,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1773,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1796,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1819,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1842,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1865,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1888,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1911,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1934,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1957,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1980,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2003,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2026,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2049,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2072,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2095,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2118,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2141,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2187,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2210,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2233,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2256,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2279,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2302,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2325,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2348,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2371,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2394,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2417,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2440,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2463,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2486,13 +2422,23 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Desktop\newnewForkFork\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Desktop\Fork\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B18F0B-54D4-4866-85E2-59E44463141C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3F7EF1-E9BA-47CF-8274-E7089961C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
   <si>
     <t>GuestID</t>
   </si>
@@ -52,15 +52,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>배고파?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배고파</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10시 비상구 고고</t>
+    <t>테스트</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1140,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1209,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1232,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1278,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1301,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1324,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1347,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1393,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1416,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1439,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1485,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1508,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1525,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1548,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1594,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1640,13 +1632,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1663,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,13 +1885,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1916,13 +1908,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1939,13 +1931,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1962,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1985,13 +1977,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2008,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2031,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2054,13 +2046,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2077,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2100,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2123,13 +2115,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2169,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2192,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2215,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2238,13 +2230,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2261,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2284,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2307,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2330,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2353,13 +2345,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2376,13 +2368,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2399,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2422,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">

--- a/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/CHS/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHS\Documents\GitHub\Fork\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Documents\GitHub\Cloud-Factory\Cloud_Factory\Assets\Scripts\CHS\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AD3FA8-F7B1-4C65-B46A-3B77DE913DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B230F2-21C5-403D-88CE-7595F5D077A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText1" sheetId="1" r:id="rId1"/>
@@ -1009,13 +1009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1122,9 +1122,9 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>17</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>19</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>6</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>8</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>11</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>16</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>17</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>18</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>19</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>20</v>
       </c>
@@ -2527,12 +2527,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E63" t="s">
         <v>7</v>
       </c>
@@ -2547,13 +2547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636DC09-10FC-4E5B-86E1-68AFDEFDABAB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
